--- a/data/trans_orig/P79A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P79A_R-Edad-trans_orig.xlsx
@@ -741,19 +741,19 @@
         <v>12514</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>4031</v>
+        <v>3545</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>32331</v>
+        <v>32093</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03068832091847983</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.009885458203939403</v>
+        <v>0.00869217781369149</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.07928203360177587</v>
+        <v>0.07869864185145675</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>11</v>
@@ -762,19 +762,19 @@
         <v>21163</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>11249</v>
+        <v>11040</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>38514</v>
+        <v>39985</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.05837807808923381</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.03103130693510919</v>
+        <v>0.03045425614228241</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.1062414198422495</v>
+        <v>0.1102992375911583</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>15</v>
@@ -783,19 +783,19 @@
         <v>33677</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19196</v>
+        <v>18186</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57116</v>
+        <v>54585</v>
       </c>
       <c r="U4" s="6" t="n">
-        <v>0.04371935157259337</v>
+        <v>0.04371935157259336</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.0249196308750067</v>
+        <v>0.02360877381725859</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.07414724214988777</v>
+        <v>0.07086154636132694</v>
       </c>
     </row>
     <row r="5">
@@ -812,19 +812,19 @@
         <v>395279</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>375462</v>
+        <v>375700</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>403762</v>
+        <v>404248</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.9693116790815202</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.9207179663982241</v>
+        <v>0.9213013581485426</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9901145417960584</v>
+        <v>0.9913078221863084</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>196</v>
@@ -833,19 +833,19 @@
         <v>341349</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>323998</v>
+        <v>322527</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>351263</v>
+        <v>351472</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.9416219219107661</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.8937585801577503</v>
+        <v>0.8897007624088417</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.968968693064891</v>
+        <v>0.9695457438577176</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>364</v>
@@ -854,19 +854,19 @@
         <v>736628</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>713189</v>
+        <v>715720</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>751109</v>
+        <v>752119</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.9562806484274067</v>
+        <v>0.9562806484274066</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.9258527578501125</v>
+        <v>0.9291384536386723</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.9750803691249933</v>
+        <v>0.9763912261827415</v>
       </c>
     </row>
     <row r="6">
@@ -958,19 +958,19 @@
         <v>14087</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>6607</v>
+        <v>6403</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>26977</v>
+        <v>27444</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.0295394741748788</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.01385340325229866</v>
+        <v>0.01342619277119207</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.05656914453438106</v>
+        <v>0.05754818412317703</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>8</v>
@@ -979,19 +979,19 @@
         <v>10571</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>4680</v>
+        <v>4837</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>19311</v>
+        <v>21535</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.02106831917245381</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.009327832833722819</v>
+        <v>0.009640646202733446</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.03848837149874958</v>
+        <v>0.0429207665755033</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>16</v>
@@ -1000,19 +1000,19 @@
         <v>24658</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>14411</v>
+        <v>14340</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>40902</v>
+        <v>40525</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.02519637653288221</v>
+        <v>0.02519637653288222</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.01472576053162806</v>
+        <v>0.01465362031503202</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.04179535947025134</v>
+        <v>0.04141031616575947</v>
       </c>
     </row>
     <row r="8">
@@ -1029,19 +1029,19 @@
         <v>462803</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>449913</v>
+        <v>449446</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>470283</v>
+        <v>470487</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.9704605258251212</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.9434308554656187</v>
+        <v>0.9424518158768229</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.9861465967477012</v>
+        <v>0.9865738072288079</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>453</v>
@@ -1050,19 +1050,19 @@
         <v>491162</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>482422</v>
+        <v>480198</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>497053</v>
+        <v>496896</v>
       </c>
       <c r="N8" s="6" t="n">
-        <v>0.9789316808275461</v>
+        <v>0.9789316808275462</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.9615116285012504</v>
+        <v>0.9570792334244967</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.9906721671662773</v>
+        <v>0.9903593537972666</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>747</v>
@@ -1071,19 +1071,19 @@
         <v>953965</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>937721</v>
+        <v>938098</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>964212</v>
+        <v>964283</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.9748036234671177</v>
+        <v>0.9748036234671178</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.9582046405297486</v>
+        <v>0.9585896838342407</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.9852742394683719</v>
+        <v>0.9853463796849681</v>
       </c>
     </row>
     <row r="9">
@@ -1175,19 +1175,19 @@
         <v>18558</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11556</v>
+        <v>10014</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>28900</v>
+        <v>28650</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.02989143860538467</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.01861348213197072</v>
+        <v>0.01612958714905787</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.0465494889338265</v>
+        <v>0.04614691456379085</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>24</v>
@@ -1196,19 +1196,19 @@
         <v>18968</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>12167</v>
+        <v>12470</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>27793</v>
+        <v>27764</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.03043748055492995</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.01952321704267302</v>
+        <v>0.02000915383408734</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.04459744442110444</v>
+        <v>0.04455149170596504</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>41</v>
@@ -1217,19 +1217,19 @@
         <v>37526</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>27757</v>
+        <v>27228</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>50643</v>
+        <v>50111</v>
       </c>
       <c r="U10" s="6" t="n">
-        <v>0.03016497659711446</v>
+        <v>0.03016497659711445</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.02231239314418786</v>
+        <v>0.02188714978382321</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.04070883885010293</v>
+        <v>0.04028086319910545</v>
       </c>
     </row>
     <row r="11">
@@ -1246,19 +1246,19 @@
         <v>602279</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>591937</v>
+        <v>592187</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>609281</v>
+        <v>610823</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.9701085613946152</v>
+        <v>0.9701085613946154</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.9534505110661732</v>
+        <v>0.9538530854362093</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.9813865178680292</v>
+        <v>0.9838704128509425</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>824</v>
@@ -1267,19 +1267,19 @@
         <v>604225</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>595400</v>
+        <v>595429</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>611026</v>
+        <v>610723</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.9695625194450699</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.9554025555788956</v>
+        <v>0.955448508294035</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.9804767829573272</v>
+        <v>0.9799908461659127</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>1353</v>
@@ -1288,19 +1288,19 @@
         <v>1206503</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>1193386</v>
+        <v>1193918</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1216272</v>
+        <v>1216801</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.9698350234028856</v>
+        <v>0.9698350234028854</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.9592911611498973</v>
+        <v>0.959719136800895</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.9776876068558125</v>
+        <v>0.9781128502161767</v>
       </c>
     </row>
     <row r="12">
@@ -1392,19 +1392,19 @@
         <v>18086</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>10314</v>
+        <v>10958</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>28710</v>
+        <v>30212</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.02581458024506405</v>
+        <v>0.02581458024506404</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.01472168544773605</v>
+        <v>0.01564027315262679</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.04097853699692322</v>
+        <v>0.04312134224639551</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>19</v>
@@ -1413,19 +1413,19 @@
         <v>12740</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>8312</v>
+        <v>7747</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>19719</v>
+        <v>19807</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.01728949646695555</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.01128021810247825</v>
+        <v>0.01051331330884393</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.02675993246598186</v>
+        <v>0.02687881800596075</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>34</v>
@@ -1434,19 +1434,19 @@
         <v>30827</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>20907</v>
+        <v>22041</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>43448</v>
+        <v>44193</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.0214444914542953</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.01454386672075136</v>
+        <v>0.01533250542872869</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.03022443189836056</v>
+        <v>0.03074259444364474</v>
       </c>
     </row>
     <row r="14">
@@ -1463,19 +1463,19 @@
         <v>682531</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>671907</v>
+        <v>670405</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>690303</v>
+        <v>689659</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.9741854197549361</v>
+        <v>0.974185419754936</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.9590214630030767</v>
+        <v>0.9568786577536044</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.9852783145522639</v>
+        <v>0.9843597268473732</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>1122</v>
@@ -1484,19 +1484,19 @@
         <v>724146</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>717167</v>
+        <v>717079</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>728574</v>
+        <v>729139</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.9827105035330445</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.9732400675340179</v>
+        <v>0.9731211819940387</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.9887197818975215</v>
+        <v>0.989486686691156</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1772</v>
@@ -1505,19 +1505,19 @@
         <v>1406677</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>1394056</v>
+        <v>1393311</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>1416597</v>
+        <v>1415463</v>
       </c>
       <c r="U14" s="6" t="n">
-        <v>0.9785555085457046</v>
+        <v>0.9785555085457048</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.9697755681016395</v>
+        <v>0.9692574055563552</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.9854561332792486</v>
+        <v>0.9846674945712713</v>
       </c>
     </row>
     <row r="15">
@@ -1609,19 +1609,19 @@
         <v>16217</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>9370</v>
+        <v>9389</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>25724</v>
+        <v>25352</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.02661433855927623</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.01537727710080337</v>
+        <v>0.01540869012386946</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.04221511366000701</v>
+        <v>0.04160558342088254</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -1630,19 +1630,19 @@
         <v>14372</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9217</v>
+        <v>8987</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>21071</v>
+        <v>21230</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.02360491356073267</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01513803448211641</v>
+        <v>0.01476054762031865</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03460716380281695</v>
+        <v>0.03486808503660043</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>38</v>
@@ -1651,19 +1651,19 @@
         <v>30589</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>22287</v>
+        <v>21924</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>42283</v>
+        <v>42257</v>
       </c>
       <c r="U16" s="6" t="n">
-        <v>0.02511023259270407</v>
+        <v>0.02511023259270406</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.01829520684876349</v>
+        <v>0.0179972036130495</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.03470964388090839</v>
+        <v>0.0346878325419862</v>
       </c>
     </row>
     <row r="17">
@@ -1680,19 +1680,19 @@
         <v>593129</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>583622</v>
+        <v>583994</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>599976</v>
+        <v>599957</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.9733856614407236</v>
+        <v>0.9733856614407237</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.9577848863399934</v>
+        <v>0.9583944165791176</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.9846227228991965</v>
+        <v>0.9845913098761305</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>980</v>
@@ -1701,19 +1701,19 @@
         <v>594483</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>587784</v>
+        <v>587625</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>599638</v>
+        <v>599868</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.9763950864392673</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.9653928361971832</v>
+        <v>0.9651319149633998</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.9848619655178835</v>
+        <v>0.9852394523796815</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1627</v>
@@ -1722,19 +1722,19 @@
         <v>1187613</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>1175919</v>
+        <v>1175945</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>1195915</v>
+        <v>1196278</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.9748897674072959</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.9652903561190918</v>
+        <v>0.9653121674580137</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.9817047931512364</v>
+        <v>0.9820027963869506</v>
       </c>
     </row>
     <row r="18">
@@ -1826,19 +1826,19 @@
         <v>4857</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>2255</v>
+        <v>1937</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>9829</v>
+        <v>9890</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.01193091061577709</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.005540383791612988</v>
+        <v>0.004758705768224517</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.02414445677342642</v>
+        <v>0.02429421821741328</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>7</v>
@@ -1847,19 +1847,19 @@
         <v>3716</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>1690</v>
+        <v>1588</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>7848</v>
+        <v>7571</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.008462102775708134</v>
+        <v>0.008462102775708132</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.00384734277978496</v>
+        <v>0.003616679645747236</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.01786935708014046</v>
+        <v>0.01723861793072392</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>14</v>
@@ -1868,19 +1868,19 @@
         <v>8573</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>4903</v>
+        <v>4935</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>15234</v>
+        <v>14426</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.01013074463062275</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.005794212277362907</v>
+        <v>0.005831334821830949</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.01800241201537577</v>
+        <v>0.01704660909555957</v>
       </c>
     </row>
     <row r="20">
@@ -1897,19 +1897,19 @@
         <v>402223</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>397251</v>
+        <v>397190</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>404825</v>
+        <v>405143</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.9880690893842229</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.9758555432265736</v>
+        <v>0.9757057817825863</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.9944596162083871</v>
+        <v>0.9952412942317751</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>820</v>
@@ -1918,19 +1918,19 @@
         <v>435450</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>431318</v>
+        <v>431595</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>437476</v>
+        <v>437578</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.9915378972242919</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.9821306429198587</v>
+        <v>0.9827613820692764</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.9961526572202151</v>
+        <v>0.9963833203542528</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>1383</v>
@@ -1939,19 +1939,19 @@
         <v>837673</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>831012</v>
+        <v>831820</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>841343</v>
+        <v>841311</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.9898692553693771</v>
+        <v>0.9898692553693772</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.9819975879846239</v>
+        <v>0.9829533909044403</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.9942057877226371</v>
+        <v>0.9941686651781692</v>
       </c>
     </row>
     <row r="21">
@@ -2046,7 +2046,7 @@
         <v>0</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>4245</v>
+        <v>5823</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.003359137914037492</v>
@@ -2055,7 +2055,7 @@
         <v>0</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01368572765204564</v>
+        <v>0.01877257368760509</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>5</v>
@@ -2064,19 +2064,19 @@
         <v>2749</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>1059</v>
+        <v>1034</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>6115</v>
+        <v>6483</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.00591663337734225</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.002278575183181959</v>
+        <v>0.002224548354697534</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01316254464753145</v>
+        <v>0.01395293544103053</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>6</v>
@@ -2085,19 +2085,19 @@
         <v>3791</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>1436</v>
+        <v>1311</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>8312</v>
+        <v>7871</v>
       </c>
       <c r="U22" s="6" t="n">
-        <v>0.004892726052632638</v>
+        <v>0.004892726052632637</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.001853553349834163</v>
+        <v>0.001691913064349099</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01072755240840628</v>
+        <v>0.01015836766746751</v>
       </c>
     </row>
     <row r="23">
@@ -2114,7 +2114,7 @@
         <v>309156</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>305953</v>
+        <v>304375</v>
       </c>
       <c r="F23" s="5" t="n">
         <v>310198</v>
@@ -2123,7 +2123,7 @@
         <v>0.9966408620859625</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.9863142723479542</v>
+        <v>0.9812274263123947</v>
       </c>
       <c r="I23" s="6" t="n">
         <v>1</v>
@@ -2135,19 +2135,19 @@
         <v>461860</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>458494</v>
+        <v>458126</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>463550</v>
+        <v>463575</v>
       </c>
       <c r="N23" s="6" t="n">
-        <v>0.9940833666226578</v>
+        <v>0.9940833666226576</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.9868374553524695</v>
+        <v>0.9860470645589698</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.9977214248168184</v>
+        <v>0.9977754516453026</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>1333</v>
@@ -2156,19 +2156,19 @@
         <v>771016</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>766495</v>
+        <v>766936</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>773371</v>
+        <v>773496</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.9951072739473674</v>
+        <v>0.9951072739473673</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.9892724475915946</v>
+        <v>0.9898416323325324</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.9981464466501658</v>
+        <v>0.9983080869356508</v>
       </c>
     </row>
     <row r="24">
@@ -2260,19 +2260,19 @@
         <v>85362</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>65329</v>
+        <v>65013</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>110343</v>
+        <v>111213</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.02416285196322061</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.01849238473059382</v>
+        <v>0.01840291412788386</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.03123429551518168</v>
+        <v>0.03148034233396814</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>96</v>
@@ -2281,19 +2281,19 @@
         <v>84279</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>67565</v>
+        <v>67385</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>106421</v>
+        <v>106219</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.02255296621645562</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.01808032305205098</v>
+        <v>0.01803210890332891</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.02847806343617626</v>
+        <v>0.02842404184830219</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>164</v>
@@ -2302,19 +2302,19 @@
         <v>169641</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>140593</v>
+        <v>142072</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>202459</v>
+        <v>201443</v>
       </c>
       <c r="U25" s="6" t="n">
-        <v>0.02333529980206941</v>
+        <v>0.0233352998020694</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.01933955115180768</v>
+        <v>0.01954293183083654</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.02784963182532533</v>
+        <v>0.02770982670861228</v>
       </c>
     </row>
     <row r="26">
@@ -2331,19 +2331,19 @@
         <v>3447400</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>3422419</v>
+        <v>3421549</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>3467433</v>
+        <v>3467749</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.9758371480367795</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.968765704484818</v>
+        <v>0.9685196576660319</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.9815076152694062</v>
+        <v>0.9815970858721162</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>5271</v>
@@ -2352,19 +2352,19 @@
         <v>3652675</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>3630533</v>
+        <v>3630735</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>3669389</v>
+        <v>3669569</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.9774470337835445</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.9715219365638238</v>
+        <v>0.9715759581516983</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.981919676947949</v>
+        <v>0.9819678910966712</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>8579</v>
@@ -2373,19 +2373,19 @@
         <v>7100075</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>7067257</v>
+        <v>7068273</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>7129123</v>
+        <v>7127644</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.9766647001979306</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.9721503681746748</v>
+        <v>0.9722901732913873</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.9806604488481924</v>
+        <v>0.9804570681691633</v>
       </c>
     </row>
     <row r="27">
